--- a/src/test/resources/Project.xlsx
+++ b/src/test/resources/Project.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\IdeaProjects\AutomatioExerciseP2\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE686FCF-F921-4CCA-BED3-9CD8E973D0C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E11A49F-CE34-4103-A66F-8172A1342D12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="11" xr2:uid="{83D4DD9F-97A6-4BD5-9815-820EA4B41FFE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{83D4DD9F-97A6-4BD5-9815-820EA4B41FFE}"/>
   </bookViews>
   <sheets>
     <sheet name="Register User" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="69">
   <si>
     <t>Test_name</t>
   </si>
@@ -231,6 +231,18 @@
   </si>
   <si>
     <t>Verify Address</t>
+  </si>
+  <si>
+    <t>raju01215</t>
+  </si>
+  <si>
+    <t>raju01215@gmail.com</t>
+  </si>
+  <si>
+    <t>rajugangster1@gmail.com</t>
+  </si>
+  <si>
+    <t>ram0775aadsff@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -605,8 +617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AC64C8F-F0BE-4BCE-BBE9-209CC8604C0A}">
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection sqref="A1:T2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -615,7 +627,7 @@
     <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32" customWidth="1"/>
     <col min="6" max="6" width="27.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
@@ -701,7 +713,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
@@ -860,7 +872,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F69523CF-1182-4515-830E-F787B13E01CF}">
   <dimension ref="A1:AG2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+    <sheetView topLeftCell="T1" workbookViewId="0">
       <selection activeCell="AG2" sqref="AG2"/>
     </sheetView>
   </sheetViews>
@@ -1081,13 +1093,13 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" customWidth="1"/>
+    <col min="2" max="2" width="30.85546875" customWidth="1"/>
     <col min="3" max="3" width="17.85546875" customWidth="1"/>
     <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="31.85546875" customWidth="1"/>
@@ -1112,7 +1124,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>35</v>
@@ -1188,7 +1200,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1240,7 +1252,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5984C648-3C2D-4554-8369-223FDB02095B}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:D2"/>
     </sheetView>
   </sheetViews>
@@ -1589,11 +1601,12 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:J2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="3" max="3" width="31.7109375" customWidth="1"/>
     <col min="7" max="7" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1637,10 +1650,10 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="E2" t="s">
         <v>51</v>
@@ -1667,8 +1680,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{2F03AC27-FDF1-48F2-B401-01E194626849}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{73E3C0E8-18C2-4F7A-8254-8B932EA82E34}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{D4BD687B-8A38-4A54-A388-B27A56E538EB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
